--- a/data/pca/factorExposure/factorExposure_2016-01-27.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-01-27.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01621336948016464</v>
+        <v>0.01889862320644069</v>
       </c>
       <c r="C2">
-        <v>-0.04427596706680195</v>
+        <v>-0.0386816408538303</v>
       </c>
       <c r="D2">
-        <v>0.110649629361016</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.118749662550398</v>
+      </c>
+      <c r="E2">
+        <v>-0.08853346289828797</v>
+      </c>
+      <c r="F2">
+        <v>-0.003187599872358292</v>
+      </c>
+      <c r="G2">
+        <v>-0.02768703518184851</v>
+      </c>
+      <c r="H2">
+        <v>-0.0920724140735274</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02289112079883392</v>
+        <v>0.01317477392669766</v>
       </c>
       <c r="C3">
-        <v>-0.07993092370604481</v>
+        <v>-0.04285989741330611</v>
       </c>
       <c r="D3">
-        <v>0.1607482231867782</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>0.08255575463864491</v>
+      </c>
+      <c r="E3">
+        <v>-0.1075550868118912</v>
+      </c>
+      <c r="F3">
+        <v>0.03766532093092209</v>
+      </c>
+      <c r="G3">
+        <v>-0.08710571115980952</v>
+      </c>
+      <c r="H3">
+        <v>-0.06401709927565392</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.05752072427927276</v>
+        <v>0.05943795198150677</v>
       </c>
       <c r="C4">
-        <v>-0.05836795198645787</v>
+        <v>-0.06729211031379032</v>
       </c>
       <c r="D4">
-        <v>0.1233889405393421</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.1285696086252019</v>
+      </c>
+      <c r="E4">
+        <v>-0.07082360118474515</v>
+      </c>
+      <c r="F4">
+        <v>0.006521516234448412</v>
+      </c>
+      <c r="G4">
+        <v>0.02949102598764898</v>
+      </c>
+      <c r="H4">
+        <v>0.02933323339134688</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04135537250008072</v>
+        <v>0.04004032985042509</v>
       </c>
       <c r="C6">
-        <v>-0.02924589738286138</v>
+        <v>-0.02784099173077495</v>
       </c>
       <c r="D6">
-        <v>0.1204220046567732</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.1265998421563202</v>
+      </c>
+      <c r="E6">
+        <v>-0.04386334447086293</v>
+      </c>
+      <c r="F6">
+        <v>0.007672966977889859</v>
+      </c>
+      <c r="G6">
+        <v>-0.008475560934695503</v>
+      </c>
+      <c r="H6">
+        <v>-0.004449832237287611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02539919446625789</v>
+        <v>0.01962512517958886</v>
       </c>
       <c r="C7">
-        <v>-0.02935202063060631</v>
+        <v>-0.03606794353941928</v>
       </c>
       <c r="D7">
-        <v>0.08953325500355654</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.09046222720816913</v>
+      </c>
+      <c r="E7">
+        <v>-0.05535658093279212</v>
+      </c>
+      <c r="F7">
+        <v>0.01563340051515934</v>
+      </c>
+      <c r="G7">
+        <v>0.05541930869599728</v>
+      </c>
+      <c r="H7">
+        <v>-0.08707258212499303</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.006206246816683251</v>
+        <v>0.007245928236747187</v>
       </c>
       <c r="C8">
-        <v>-0.03957798182988658</v>
+        <v>-0.03797216806559806</v>
       </c>
       <c r="D8">
-        <v>0.07384290359840798</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.07883702678251729</v>
+      </c>
+      <c r="E8">
+        <v>-0.04166947168190978</v>
+      </c>
+      <c r="F8">
+        <v>0.02575786080508033</v>
+      </c>
+      <c r="G8">
+        <v>0.001585050763973088</v>
+      </c>
+      <c r="H8">
+        <v>-0.02545279903549485</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03995795917380328</v>
+        <v>0.04300636594663858</v>
       </c>
       <c r="C9">
-        <v>-0.04220255613689864</v>
+        <v>-0.05520763600743329</v>
       </c>
       <c r="D9">
-        <v>0.09748551780251609</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.110547971335451</v>
+      </c>
+      <c r="E9">
+        <v>-0.0469793965142424</v>
+      </c>
+      <c r="F9">
+        <v>-0.004281936472375254</v>
+      </c>
+      <c r="G9">
+        <v>0.0336019274159251</v>
+      </c>
+      <c r="H9">
+        <v>0.00219963965723834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.08025548347082331</v>
+        <v>0.1167626858496688</v>
       </c>
       <c r="C10">
-        <v>0.1924695648669079</v>
+        <v>0.1952772454733352</v>
       </c>
       <c r="D10">
-        <v>0.02250653180526847</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.001818980300121118</v>
+      </c>
+      <c r="E10">
+        <v>-0.04908165236896064</v>
+      </c>
+      <c r="F10">
+        <v>0.01317862960717196</v>
+      </c>
+      <c r="G10">
+        <v>0.02896818014559385</v>
+      </c>
+      <c r="H10">
+        <v>0.02267327824711748</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.04155168940747395</v>
+        <v>0.0331322462636811</v>
       </c>
       <c r="C11">
-        <v>-0.0459402235430936</v>
+        <v>-0.04457601215592225</v>
       </c>
       <c r="D11">
-        <v>0.06076144378402986</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.05858118640870129</v>
+      </c>
+      <c r="E11">
+        <v>-0.01765070732909705</v>
+      </c>
+      <c r="F11">
+        <v>0.003279941423457292</v>
+      </c>
+      <c r="G11">
+        <v>0.03437950789913007</v>
+      </c>
+      <c r="H11">
+        <v>-0.05310770519937939</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.04707193198353753</v>
+        <v>0.03701953624531576</v>
       </c>
       <c r="C12">
-        <v>-0.04344982556354263</v>
+        <v>-0.04481225065343877</v>
       </c>
       <c r="D12">
-        <v>0.05300703190834611</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.05634368680241155</v>
+      </c>
+      <c r="E12">
+        <v>-0.02893060371822555</v>
+      </c>
+      <c r="F12">
+        <v>-0.00367619348521733</v>
+      </c>
+      <c r="G12">
+        <v>0.0329730642021707</v>
+      </c>
+      <c r="H12">
+        <v>-0.05989664913359018</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01728614445442794</v>
+        <v>0.02003595331186177</v>
       </c>
       <c r="C13">
-        <v>-0.03507222835461406</v>
+        <v>-0.03714045505610095</v>
       </c>
       <c r="D13">
-        <v>0.1244386490202723</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.13532907408387</v>
+      </c>
+      <c r="E13">
+        <v>-0.08432591713698766</v>
+      </c>
+      <c r="F13">
+        <v>0.01621221177687504</v>
+      </c>
+      <c r="G13">
+        <v>0.0410984225813755</v>
+      </c>
+      <c r="H13">
+        <v>-0.0714557514282292</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.01265356792071157</v>
+        <v>0.008005224261378062</v>
       </c>
       <c r="C14">
-        <v>-0.02259865589820159</v>
+        <v>-0.02638160498729461</v>
       </c>
       <c r="D14">
-        <v>0.08057037127510251</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.08165620925563216</v>
+      </c>
+      <c r="E14">
+        <v>-0.05262727465383797</v>
+      </c>
+      <c r="F14">
+        <v>-0.0120390230142457</v>
+      </c>
+      <c r="G14">
+        <v>0.03239655626490959</v>
+      </c>
+      <c r="H14">
+        <v>-0.0839937394737308</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.0009273576817548524</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.006149237506593862</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.02093879247838035</v>
+      </c>
+      <c r="E15">
+        <v>-0.003544520508278587</v>
+      </c>
+      <c r="F15">
+        <v>-0.002209192209565379</v>
+      </c>
+      <c r="G15">
+        <v>-0.002150198739959551</v>
+      </c>
+      <c r="H15">
+        <v>-0.01274655128055878</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.04342282021662753</v>
+        <v>0.03432939426213753</v>
       </c>
       <c r="C16">
-        <v>-0.04986099652310792</v>
+        <v>-0.04677216315234459</v>
       </c>
       <c r="D16">
-        <v>0.06185831440383394</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.06159191554991513</v>
+      </c>
+      <c r="E16">
+        <v>-0.02994868801622918</v>
+      </c>
+      <c r="F16">
+        <v>-0.01249605603528732</v>
+      </c>
+      <c r="G16">
+        <v>0.03117689771589793</v>
+      </c>
+      <c r="H16">
+        <v>-0.05918457302684989</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.01654058316076347</v>
+        <v>0.01357023362568496</v>
       </c>
       <c r="C19">
-        <v>-0.04249705988830902</v>
+        <v>-0.03526765915752479</v>
       </c>
       <c r="D19">
-        <v>0.172299079560597</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>0.1340126710379834</v>
+      </c>
+      <c r="E19">
+        <v>-0.08099470891993626</v>
+      </c>
+      <c r="F19">
+        <v>-0.03217717809911948</v>
+      </c>
+      <c r="G19">
+        <v>0.000497157350128211</v>
+      </c>
+      <c r="H19">
+        <v>-0.04817550563550883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.02060042594446981</v>
+        <v>0.01658262867360633</v>
       </c>
       <c r="C20">
-        <v>-0.03665983798733995</v>
+        <v>-0.03703445704497708</v>
       </c>
       <c r="D20">
-        <v>0.0955262316000694</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.09271276870030797</v>
+      </c>
+      <c r="E20">
+        <v>-0.06718286137903222</v>
+      </c>
+      <c r="F20">
+        <v>-0.01157910456073632</v>
+      </c>
+      <c r="G20">
+        <v>0.02080710958776047</v>
+      </c>
+      <c r="H20">
+        <v>-0.0428678880220467</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.01294206039972887</v>
+        <v>0.01576455937781214</v>
       </c>
       <c r="C21">
-        <v>-0.02965153601250891</v>
+        <v>-0.03944968413788693</v>
       </c>
       <c r="D21">
-        <v>0.1290484424577976</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.1303119217068068</v>
+      </c>
+      <c r="E21">
+        <v>-0.1102777909390298</v>
+      </c>
+      <c r="F21">
+        <v>-0.0185668353040472</v>
+      </c>
+      <c r="G21">
+        <v>0.07220601523283326</v>
+      </c>
+      <c r="H21">
+        <v>-0.07434857856483279</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.001578939937469579</v>
+        <v>0.005260667248517883</v>
       </c>
       <c r="C22">
-        <v>-0.01070780372700845</v>
+        <v>-0.03308359522983011</v>
       </c>
       <c r="D22">
-        <v>0.0486284196447254</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.1110328109960571</v>
+      </c>
+      <c r="E22">
+        <v>-0.03313343340684892</v>
+      </c>
+      <c r="F22">
+        <v>0.0714417985673588</v>
+      </c>
+      <c r="G22">
+        <v>-0.05077844232870479</v>
+      </c>
+      <c r="H22">
+        <v>0.01461256710467049</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.001533674475466943</v>
+        <v>0.005346225392403112</v>
       </c>
       <c r="C23">
-        <v>-0.01053864845680561</v>
+        <v>-0.03341737535740114</v>
       </c>
       <c r="D23">
-        <v>0.04832143418375572</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.1102896229762215</v>
+      </c>
+      <c r="E23">
+        <v>-0.03326654791159288</v>
+      </c>
+      <c r="F23">
+        <v>0.07137997888900385</v>
+      </c>
+      <c r="G23">
+        <v>-0.05009506790769457</v>
+      </c>
+      <c r="H23">
+        <v>0.0151303411837641</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03990676710429941</v>
+        <v>0.03523028114826694</v>
       </c>
       <c r="C24">
-        <v>-0.04955271747388249</v>
+        <v>-0.05413355822365692</v>
       </c>
       <c r="D24">
-        <v>0.06296101350408327</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06549404790847733</v>
+      </c>
+      <c r="E24">
+        <v>-0.0317971796638751</v>
+      </c>
+      <c r="F24">
+        <v>-0.01093686765699515</v>
+      </c>
+      <c r="G24">
+        <v>0.04736027608078065</v>
+      </c>
+      <c r="H24">
+        <v>-0.06109137751167389</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04799445936354655</v>
+        <v>0.03996736571040044</v>
       </c>
       <c r="C25">
-        <v>-0.05243744335652383</v>
+        <v>-0.05273604160229001</v>
       </c>
       <c r="D25">
-        <v>0.06181015484419117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.05979463993452483</v>
+      </c>
+      <c r="E25">
+        <v>-0.02990927068128192</v>
+      </c>
+      <c r="F25">
+        <v>0.003636998421003134</v>
+      </c>
+      <c r="G25">
+        <v>0.04414083023341395</v>
+      </c>
+      <c r="H25">
+        <v>-0.04889222051021033</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02379314822367449</v>
+        <v>0.02052216452866344</v>
       </c>
       <c r="C26">
-        <v>-0.01278848429832565</v>
+        <v>-0.01835145422378466</v>
       </c>
       <c r="D26">
-        <v>0.0596482858041754</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.06575221594398231</v>
+      </c>
+      <c r="E26">
+        <v>-0.03795820924645563</v>
+      </c>
+      <c r="F26">
+        <v>-0.01146643471611882</v>
+      </c>
+      <c r="G26">
+        <v>0.01550559656507412</v>
+      </c>
+      <c r="H26">
+        <v>-0.04950147168170846</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1112947019050953</v>
+        <v>0.1649194973660742</v>
       </c>
       <c r="C28">
-        <v>0.2784186912263273</v>
+        <v>0.2615867923838987</v>
       </c>
       <c r="D28">
-        <v>-0.0179862957528148</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.008545374878475032</v>
+      </c>
+      <c r="E28">
+        <v>-0.07168858165682364</v>
+      </c>
+      <c r="F28">
+        <v>0.002981918806458497</v>
+      </c>
+      <c r="G28">
+        <v>0.0647635364794816</v>
+      </c>
+      <c r="H28">
+        <v>0.0260134967181645</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.007560798533046973</v>
+        <v>0.007710169313324523</v>
       </c>
       <c r="C29">
-        <v>-0.02237631852101006</v>
+        <v>-0.02441727865034209</v>
       </c>
       <c r="D29">
-        <v>0.0633046121474224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.07403240436196888</v>
+      </c>
+      <c r="E29">
+        <v>-0.05734521932422244</v>
+      </c>
+      <c r="F29">
+        <v>0.001012127865442922</v>
+      </c>
+      <c r="G29">
+        <v>0.04456884215568108</v>
+      </c>
+      <c r="H29">
+        <v>-0.07747271982757728</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04436128409011172</v>
+        <v>0.04441738335882441</v>
       </c>
       <c r="C30">
-        <v>-0.035731552941525</v>
+        <v>-0.05515312863636829</v>
       </c>
       <c r="D30">
-        <v>0.1478029748826156</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.1687774848274197</v>
+      </c>
+      <c r="E30">
+        <v>-0.03699364602764159</v>
+      </c>
+      <c r="F30">
+        <v>-0.003703147430239002</v>
+      </c>
+      <c r="G30">
+        <v>-0.01675794307828124</v>
+      </c>
+      <c r="H30">
+        <v>-0.01773215354247668</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.0696845174593398</v>
+        <v>0.06306802768670053</v>
       </c>
       <c r="C31">
-        <v>-0.05489142318531139</v>
+        <v>-0.07172909366560436</v>
       </c>
       <c r="D31">
-        <v>0.06187682180830795</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.05174135435353427</v>
+      </c>
+      <c r="E31">
+        <v>-0.06031291885177412</v>
+      </c>
+      <c r="F31">
+        <v>0.03520167156145545</v>
+      </c>
+      <c r="G31">
+        <v>0.02948673475180899</v>
+      </c>
+      <c r="H31">
+        <v>-0.02433835884567818</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.001492632680369365</v>
+        <v>0.01104745066285369</v>
       </c>
       <c r="C32">
-        <v>-0.009215836077052446</v>
+        <v>-0.02193700248091056</v>
       </c>
       <c r="D32">
-        <v>0.07778718717067916</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.09049629746190162</v>
+      </c>
+      <c r="E32">
+        <v>-0.09438000615925352</v>
+      </c>
+      <c r="F32">
+        <v>-0.008864839427010834</v>
+      </c>
+      <c r="G32">
+        <v>0.07220863929184537</v>
+      </c>
+      <c r="H32">
+        <v>-0.05415939655248329</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02983059542240687</v>
+        <v>0.02647001127707765</v>
       </c>
       <c r="C33">
-        <v>-0.03385860406618448</v>
+        <v>-0.04432122357568829</v>
       </c>
       <c r="D33">
-        <v>0.1344411423722687</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.1291757905490628</v>
+      </c>
+      <c r="E33">
+        <v>-0.06312729255742744</v>
+      </c>
+      <c r="F33">
+        <v>0.009363222310650574</v>
+      </c>
+      <c r="G33">
+        <v>0.03678830731418145</v>
+      </c>
+      <c r="H33">
+        <v>-0.05149452822751253</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.04196808783034804</v>
+        <v>0.03443533489455937</v>
       </c>
       <c r="C34">
-        <v>-0.06061139544363407</v>
+        <v>-0.06065648438446271</v>
       </c>
       <c r="D34">
-        <v>0.05986962109411069</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.05903317176780448</v>
+      </c>
+      <c r="E34">
+        <v>-0.01328832736964177</v>
+      </c>
+      <c r="F34">
+        <v>-0.00763222996722049</v>
+      </c>
+      <c r="G34">
+        <v>0.04834613554386108</v>
+      </c>
+      <c r="H34">
+        <v>-0.06933358252498235</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0003146971908826975</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-4.666495843433878e-05</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.001849378614818212</v>
+      </c>
+      <c r="E35">
+        <v>1.775618592264418e-05</v>
+      </c>
+      <c r="F35">
+        <v>0.0002657165248481313</v>
+      </c>
+      <c r="G35">
+        <v>0.0006449195273376651</v>
+      </c>
+      <c r="H35">
+        <v>-0.002139485751369453</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02086811632092027</v>
+        <v>0.01844596941863399</v>
       </c>
       <c r="C36">
-        <v>-0.01034492874893983</v>
+        <v>-0.01710594144543461</v>
       </c>
       <c r="D36">
-        <v>0.07249325905296879</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.0737609554311054</v>
+      </c>
+      <c r="E36">
+        <v>-0.05138341630638035</v>
+      </c>
+      <c r="F36">
+        <v>-0.007299364908422666</v>
+      </c>
+      <c r="G36">
+        <v>0.03138661328396484</v>
+      </c>
+      <c r="H36">
+        <v>-0.04158981117477204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.03126532530575157</v>
+        <v>0.02412461485765675</v>
       </c>
       <c r="C38">
-        <v>-0.02224391121418668</v>
+        <v>-0.02326356474675764</v>
       </c>
       <c r="D38">
-        <v>0.05140917089678487</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.05900005681239995</v>
+      </c>
+      <c r="E38">
+        <v>-0.04129011374727762</v>
+      </c>
+      <c r="F38">
+        <v>-0.006506100426932939</v>
+      </c>
+      <c r="G38">
+        <v>-0.02379459414928884</v>
+      </c>
+      <c r="H38">
+        <v>-0.03576552171131049</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.04689365900362737</v>
+        <v>0.04064763684639183</v>
       </c>
       <c r="C39">
-        <v>-0.05547438565876737</v>
+        <v>-0.06159794093644991</v>
       </c>
       <c r="D39">
-        <v>0.07962641267166748</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.09608077976066148</v>
+      </c>
+      <c r="E39">
+        <v>-0.02607947182970318</v>
+      </c>
+      <c r="F39">
+        <v>-0.02505606733969772</v>
+      </c>
+      <c r="G39">
+        <v>0.03360081029391458</v>
+      </c>
+      <c r="H39">
+        <v>-0.07850413364152338</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01368915243112471</v>
+        <v>0.01577191277543007</v>
       </c>
       <c r="C40">
-        <v>-0.05084081241832457</v>
+        <v>-0.03993575583781395</v>
       </c>
       <c r="D40">
-        <v>0.08586813408796581</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.09200391906975575</v>
+      </c>
+      <c r="E40">
+        <v>-0.09190857292596674</v>
+      </c>
+      <c r="F40">
+        <v>0.04509709510779434</v>
+      </c>
+      <c r="G40">
+        <v>0.02601919028696004</v>
+      </c>
+      <c r="H40">
+        <v>-0.1329944982861372</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02658354737297429</v>
+        <v>0.02270114331807804</v>
       </c>
       <c r="C41">
-        <v>-0.002048498609621539</v>
+        <v>-0.01031866377364319</v>
       </c>
       <c r="D41">
-        <v>0.07680620749741578</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.05975908405560963</v>
+      </c>
+      <c r="E41">
+        <v>-0.06375176869987424</v>
+      </c>
+      <c r="F41">
+        <v>-0.007291218699910164</v>
+      </c>
+      <c r="G41">
+        <v>0.01769838925401118</v>
+      </c>
+      <c r="H41">
+        <v>-0.04118418172791732</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.04086116930344151</v>
+        <v>0.02833015324853489</v>
       </c>
       <c r="C43">
-        <v>-0.01816634832028644</v>
+        <v>-0.02251187676287103</v>
       </c>
       <c r="D43">
-        <v>0.1175113637505329</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.09085218422421448</v>
+      </c>
+      <c r="E43">
+        <v>-0.05791659605429356</v>
+      </c>
+      <c r="F43">
+        <v>0.00133685137000511</v>
+      </c>
+      <c r="G43">
+        <v>0.02624239813529919</v>
+      </c>
+      <c r="H43">
+        <v>-0.05971568759506448</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01402319912173822</v>
+        <v>0.01826701916806303</v>
       </c>
       <c r="C44">
-        <v>-0.04999000729610906</v>
+        <v>-0.0440075673872364</v>
       </c>
       <c r="D44">
-        <v>0.07988292286105254</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.09043861963907775</v>
+      </c>
+      <c r="E44">
+        <v>-0.07657334136788869</v>
+      </c>
+      <c r="F44">
+        <v>-0.01638534355722801</v>
+      </c>
+      <c r="G44">
+        <v>0.04048685467262434</v>
+      </c>
+      <c r="H44">
+        <v>-0.05062608923708577</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01698501435639697</v>
+        <v>0.01561465962184868</v>
       </c>
       <c r="C46">
-        <v>-0.0201615342825737</v>
+        <v>-0.02931494617088348</v>
       </c>
       <c r="D46">
-        <v>0.06929275252124607</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.0784142490058896</v>
+      </c>
+      <c r="E46">
+        <v>-0.05734047292859452</v>
+      </c>
+      <c r="F46">
+        <v>-0.02361111386455533</v>
+      </c>
+      <c r="G46">
+        <v>0.0559169127997057</v>
+      </c>
+      <c r="H46">
+        <v>-0.07909756627133842</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09680499014351761</v>
+        <v>0.09366212177224525</v>
       </c>
       <c r="C47">
-        <v>-0.07252353905597858</v>
+        <v>-0.08916657521536846</v>
       </c>
       <c r="D47">
-        <v>0.03893101790968756</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.03113132032257924</v>
+      </c>
+      <c r="E47">
+        <v>-0.04900307218767899</v>
+      </c>
+      <c r="F47">
+        <v>0.02156452095559415</v>
+      </c>
+      <c r="G47">
+        <v>0.05546708254190941</v>
+      </c>
+      <c r="H47">
+        <v>0.009785006767770384</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02485635606199588</v>
+        <v>0.02127362990142648</v>
       </c>
       <c r="C48">
-        <v>-0.0118024064540576</v>
+        <v>-0.02039831028940534</v>
       </c>
       <c r="D48">
-        <v>0.07122451752989181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.07467666337613153</v>
+      </c>
+      <c r="E48">
+        <v>-0.0620651600921235</v>
+      </c>
+      <c r="F48">
+        <v>-0.02255834685457993</v>
+      </c>
+      <c r="G48">
+        <v>0.03209255001473559</v>
+      </c>
+      <c r="H48">
+        <v>-0.04185761300723131</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.08480722125951237</v>
+        <v>0.07107844229112373</v>
       </c>
       <c r="C50">
-        <v>-0.08496503945183168</v>
+        <v>-0.07921180966283103</v>
       </c>
       <c r="D50">
-        <v>0.05800266788262637</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.05327369368873001</v>
+      </c>
+      <c r="E50">
+        <v>-0.07209173917260935</v>
+      </c>
+      <c r="F50">
+        <v>0.04299932342678902</v>
+      </c>
+      <c r="G50">
+        <v>0.01052352026963288</v>
+      </c>
+      <c r="H50">
+        <v>-0.04388081153881719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.01265430631169941</v>
+        <v>0.01073851994278315</v>
       </c>
       <c r="C51">
-        <v>-0.03102180502604023</v>
+        <v>-0.02206752673495719</v>
       </c>
       <c r="D51">
-        <v>0.09451577667859556</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.09133501458841399</v>
+      </c>
+      <c r="E51">
+        <v>-0.04253871791152979</v>
+      </c>
+      <c r="F51">
+        <v>-0.008994978787171318</v>
+      </c>
+      <c r="G51">
+        <v>0.01820609720396883</v>
+      </c>
+      <c r="H51">
+        <v>-0.0734391026885914</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.083463265410573</v>
+        <v>0.09695239901689694</v>
       </c>
       <c r="C53">
-        <v>-0.08210181361804109</v>
+        <v>-0.09533631385946199</v>
       </c>
       <c r="D53">
-        <v>0.01697368440302606</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004672554268747232</v>
+      </c>
+      <c r="E53">
+        <v>-0.1017279080304899</v>
+      </c>
+      <c r="F53">
+        <v>0.0162870633098059</v>
+      </c>
+      <c r="G53">
+        <v>0.07566488632697782</v>
+      </c>
+      <c r="H53">
+        <v>0.06211274693697666</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03673918982663519</v>
+        <v>0.02965835046136892</v>
       </c>
       <c r="C54">
-        <v>-0.03041317606747642</v>
+        <v>-0.03496390042522422</v>
       </c>
       <c r="D54">
-        <v>0.07910256684154972</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.08492358892425321</v>
+      </c>
+      <c r="E54">
+        <v>-0.06199571926663787</v>
+      </c>
+      <c r="F54">
+        <v>-0.0226021524260565</v>
+      </c>
+      <c r="G54">
+        <v>0.03498901907147772</v>
+      </c>
+      <c r="H54">
+        <v>-0.1005474879561525</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08698113834537292</v>
+        <v>0.09232067705953917</v>
       </c>
       <c r="C55">
-        <v>-0.06331496780922077</v>
+        <v>-0.07905725942313117</v>
       </c>
       <c r="D55">
-        <v>0.007211535418948126</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.01247156008954797</v>
+      </c>
+      <c r="E55">
+        <v>-0.06499484092266805</v>
+      </c>
+      <c r="F55">
+        <v>0.02088168888768094</v>
+      </c>
+      <c r="G55">
+        <v>0.02873449353615798</v>
+      </c>
+      <c r="H55">
+        <v>0.04008221499287762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1439650982750997</v>
+        <v>0.1472160792303989</v>
       </c>
       <c r="C56">
-        <v>-0.08916020722883933</v>
+        <v>-0.1153162033072905</v>
       </c>
       <c r="D56">
-        <v>0.0003745003860281618</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.02132460198656741</v>
+      </c>
+      <c r="E56">
+        <v>-0.05521204392291416</v>
+      </c>
+      <c r="F56">
+        <v>0.01924052522292832</v>
+      </c>
+      <c r="G56">
+        <v>0.04348657464679802</v>
+      </c>
+      <c r="H56">
+        <v>0.04914586640555016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03825411266733313</v>
+        <v>0.03612694658654367</v>
       </c>
       <c r="C58">
-        <v>0.01306806012504479</v>
+        <v>-0.01711104378382973</v>
       </c>
       <c r="D58">
-        <v>0.4414941619549952</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.3740246407776333</v>
+      </c>
+      <c r="E58">
+        <v>-0.2197899223152335</v>
+      </c>
+      <c r="F58">
+        <v>0.106331881307411</v>
+      </c>
+      <c r="G58">
+        <v>-0.4747326361954045</v>
+      </c>
+      <c r="H58">
+        <v>0.2929689890452318</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1288595729332939</v>
+        <v>0.1561148771491092</v>
       </c>
       <c r="C59">
-        <v>0.2090512314073491</v>
+        <v>0.1860941387513819</v>
       </c>
       <c r="D59">
-        <v>0.02886809101968523</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.04347688116194438</v>
+      </c>
+      <c r="E59">
+        <v>-0.01078343320197143</v>
+      </c>
+      <c r="F59">
+        <v>-0.02786449735898455</v>
+      </c>
+      <c r="G59">
+        <v>-0.0192239232444655</v>
+      </c>
+      <c r="H59">
+        <v>0.02094607111812571</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2562891161459212</v>
+        <v>0.2332506161724432</v>
       </c>
       <c r="C60">
-        <v>-0.07357445528514864</v>
+        <v>-0.08857642780051798</v>
       </c>
       <c r="D60">
-        <v>0.1065864017001804</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.1427426086900248</v>
+      </c>
+      <c r="E60">
+        <v>0.3550803240744744</v>
+      </c>
+      <c r="F60">
+        <v>0.1192326223707176</v>
+      </c>
+      <c r="G60">
+        <v>-0.03321845151188126</v>
+      </c>
+      <c r="H60">
+        <v>0.05728758784732386</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.05081099901369385</v>
+        <v>0.04402810600124234</v>
       </c>
       <c r="C61">
-        <v>-0.05058571504842782</v>
+        <v>-0.05531477939361057</v>
       </c>
       <c r="D61">
-        <v>0.09023419157882431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.08852393706740937</v>
+      </c>
+      <c r="E61">
+        <v>-0.02469378200261296</v>
+      </c>
+      <c r="F61">
+        <v>-0.01040849988333748</v>
+      </c>
+      <c r="G61">
+        <v>0.04403170201698883</v>
+      </c>
+      <c r="H61">
+        <v>-0.06397489625331726</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.01716976170316034</v>
+        <v>0.01737246298030076</v>
       </c>
       <c r="C63">
-        <v>-0.02194522503020416</v>
+        <v>-0.02782118039307468</v>
       </c>
       <c r="D63">
-        <v>0.05537696959356724</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.06758852464551415</v>
+      </c>
+      <c r="E63">
+        <v>-0.06160042969075747</v>
+      </c>
+      <c r="F63">
+        <v>0.01693052454564748</v>
+      </c>
+      <c r="G63">
+        <v>0.01911514487876589</v>
+      </c>
+      <c r="H63">
+        <v>-0.03731503082348226</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05580041504140203</v>
+        <v>0.05685848254728993</v>
       </c>
       <c r="C64">
-        <v>-0.05045461837720572</v>
+        <v>-0.0672845946962265</v>
       </c>
       <c r="D64">
-        <v>0.06122391948357175</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.05289016232475989</v>
+      </c>
+      <c r="E64">
+        <v>-0.038965700627671</v>
+      </c>
+      <c r="F64">
+        <v>-0.03265370233495191</v>
+      </c>
+      <c r="G64">
+        <v>0.07074556976795665</v>
+      </c>
+      <c r="H64">
+        <v>-0.0182206216707259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06188767232191809</v>
+        <v>0.05336809032798271</v>
       </c>
       <c r="C65">
-        <v>-0.01689101227608256</v>
+        <v>-0.02290531506753709</v>
       </c>
       <c r="D65">
-        <v>0.1053847519838756</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.1163800016367092</v>
+      </c>
+      <c r="E65">
+        <v>-0.01148826395196966</v>
+      </c>
+      <c r="F65">
+        <v>0.01596381906944105</v>
+      </c>
+      <c r="G65">
+        <v>-0.0432601604046277</v>
+      </c>
+      <c r="H65">
+        <v>0.01864458209291836</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.05370697235212822</v>
+        <v>0.04800588126278962</v>
       </c>
       <c r="C66">
-        <v>-0.0590021926227972</v>
+        <v>-0.06900428748010595</v>
       </c>
       <c r="D66">
-        <v>0.105626776055402</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.1193296387875046</v>
+      </c>
+      <c r="E66">
+        <v>-0.02952127522966325</v>
+      </c>
+      <c r="F66">
+        <v>-0.0123282259325855</v>
+      </c>
+      <c r="G66">
+        <v>0.02110924938491093</v>
+      </c>
+      <c r="H66">
+        <v>-0.06100515924386008</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.05344018244029739</v>
+        <v>0.04298729466946039</v>
       </c>
       <c r="C67">
-        <v>-0.02642791157374087</v>
+        <v>-0.02747336457238804</v>
       </c>
       <c r="D67">
-        <v>0.02284820616965282</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.02363990381498858</v>
+      </c>
+      <c r="E67">
+        <v>-0.02498796769151595</v>
+      </c>
+      <c r="F67">
+        <v>0.0002737392926627288</v>
+      </c>
+      <c r="G67">
+        <v>-0.01500591564506495</v>
+      </c>
+      <c r="H67">
+        <v>-0.03533719738666885</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1407043020262876</v>
+        <v>0.1689978278001832</v>
       </c>
       <c r="C68">
-        <v>0.2903272367076862</v>
+        <v>0.2368909071142875</v>
       </c>
       <c r="D68">
-        <v>-0.02651159335842876</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.001168935512856683</v>
+      </c>
+      <c r="E68">
+        <v>-0.05273994652308192</v>
+      </c>
+      <c r="F68">
+        <v>0.03065595976412729</v>
+      </c>
+      <c r="G68">
+        <v>-0.01017661089059307</v>
+      </c>
+      <c r="H68">
+        <v>0.00853288286120742</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.09827768942273511</v>
+        <v>0.08920279186982426</v>
       </c>
       <c r="C69">
-        <v>-0.08417171670795012</v>
+        <v>-0.1006372271024761</v>
       </c>
       <c r="D69">
-        <v>0.04115158008154828</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.04470572345750176</v>
+      </c>
+      <c r="E69">
+        <v>-0.04726987357406577</v>
+      </c>
+      <c r="F69">
+        <v>-0.001076882297189604</v>
+      </c>
+      <c r="G69">
+        <v>0.0548140998705073</v>
+      </c>
+      <c r="H69">
+        <v>-0.01397513870824396</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.123892917538645</v>
+        <v>0.1599653956990432</v>
       </c>
       <c r="C71">
-        <v>0.2591125480155336</v>
+        <v>0.2331342160661398</v>
       </c>
       <c r="D71">
-        <v>0.03713101012189753</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.03677336144141774</v>
+      </c>
+      <c r="E71">
+        <v>-0.05513342816921654</v>
+      </c>
+      <c r="F71">
+        <v>0.01905521925142101</v>
+      </c>
+      <c r="G71">
+        <v>0.04270754074410578</v>
+      </c>
+      <c r="H71">
+        <v>-0.004248938162715227</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09509155926202197</v>
+        <v>0.1022144193913428</v>
       </c>
       <c r="C72">
-        <v>-0.04256647861042209</v>
+        <v>-0.05696066316121629</v>
       </c>
       <c r="D72">
-        <v>0.08276773931750998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.08829444689305226</v>
+      </c>
+      <c r="E72">
+        <v>0.0144815482267584</v>
+      </c>
+      <c r="F72">
+        <v>0.02868758195191752</v>
+      </c>
+      <c r="G72">
+        <v>0.05398423442562598</v>
+      </c>
+      <c r="H72">
+        <v>-0.01844667062492352</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3029245436951536</v>
+        <v>0.2672667741671797</v>
       </c>
       <c r="C73">
-        <v>-0.006183390565422824</v>
+        <v>-0.05013206148703531</v>
       </c>
       <c r="D73">
-        <v>0.1920611126184547</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.229018378060458</v>
+      </c>
+      <c r="E73">
+        <v>0.6515167851724325</v>
+      </c>
+      <c r="F73">
+        <v>0.1598340603668145</v>
+      </c>
+      <c r="G73">
+        <v>-0.07079736131153336</v>
+      </c>
+      <c r="H73">
+        <v>0.0612184211353031</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1064346503978205</v>
+        <v>0.1085624687392775</v>
       </c>
       <c r="C74">
-        <v>-0.0832376539193114</v>
+        <v>-0.09230875976730472</v>
       </c>
       <c r="D74">
-        <v>0.03544414001068801</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.005897729744487502</v>
+      </c>
+      <c r="E74">
+        <v>-0.07528872837685431</v>
+      </c>
+      <c r="F74">
+        <v>0.04267402752188596</v>
+      </c>
+      <c r="G74">
+        <v>0.030247645258244</v>
+      </c>
+      <c r="H74">
+        <v>0.07959698534696553</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2580668838468105</v>
+        <v>0.252999341891833</v>
       </c>
       <c r="C75">
-        <v>-0.1050176120452709</v>
+        <v>-0.1424828045254909</v>
       </c>
       <c r="D75">
-        <v>-0.08683838645938066</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.1232891011880125</v>
+      </c>
+      <c r="E75">
+        <v>-0.06127710203026693</v>
+      </c>
+      <c r="F75">
+        <v>-0.02152921101596401</v>
+      </c>
+      <c r="G75">
+        <v>0.0155277004549774</v>
+      </c>
+      <c r="H75">
+        <v>0.1696139081618793</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1148444784583992</v>
+        <v>0.1273844822324805</v>
       </c>
       <c r="C76">
-        <v>-0.08512985620965101</v>
+        <v>-0.1037406332467079</v>
       </c>
       <c r="D76">
-        <v>0.006541079471496732</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.02458797535279307</v>
+      </c>
+      <c r="E76">
+        <v>-0.1067511339272775</v>
+      </c>
+      <c r="F76">
+        <v>-0.001626883413411247</v>
+      </c>
+      <c r="G76">
+        <v>0.04950475118998664</v>
+      </c>
+      <c r="H76">
+        <v>0.05100967202412031</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.08299427003648138</v>
+        <v>0.06730418392328481</v>
       </c>
       <c r="C77">
-        <v>-0.01836457593892959</v>
+        <v>-0.06171226343733347</v>
       </c>
       <c r="D77">
-        <v>0.1071818649337762</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.1164188713173497</v>
+      </c>
+      <c r="E77">
+        <v>-0.06941164036905371</v>
+      </c>
+      <c r="F77">
+        <v>-0.2925635624017033</v>
+      </c>
+      <c r="G77">
+        <v>-0.1807284958298965</v>
+      </c>
+      <c r="H77">
+        <v>0.117974410524535</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.04218022259227366</v>
+        <v>0.04432990630188786</v>
       </c>
       <c r="C78">
-        <v>-0.04510623003621902</v>
+        <v>-0.05797895453715372</v>
       </c>
       <c r="D78">
-        <v>0.08735732515166826</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.119048428324155</v>
+      </c>
+      <c r="E78">
+        <v>-0.03027999369978824</v>
+      </c>
+      <c r="F78">
+        <v>0.002165410803897489</v>
+      </c>
+      <c r="G78">
+        <v>0.04288671963045938</v>
+      </c>
+      <c r="H78">
+        <v>-0.01758120159429544</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.003977767766250657</v>
+        <v>0.04010546276018089</v>
       </c>
       <c r="C79">
-        <v>0.002802926964066621</v>
+        <v>-0.06812440938223176</v>
       </c>
       <c r="D79">
-        <v>0.01699609262267869</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.05460797343511279</v>
+      </c>
+      <c r="E79">
+        <v>-0.1259622181378733</v>
+      </c>
+      <c r="F79">
+        <v>0.04512465283172403</v>
+      </c>
+      <c r="G79">
+        <v>0.3486010234914797</v>
+      </c>
+      <c r="H79">
+        <v>0.6948383664046697</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.03581336358711483</v>
+        <v>0.02957644686270022</v>
       </c>
       <c r="C80">
-        <v>-0.02079542901112245</v>
+        <v>-0.03715908849857418</v>
       </c>
       <c r="D80">
-        <v>0.03728048166482873</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.03527822043774657</v>
+      </c>
+      <c r="E80">
+        <v>-0.00299085266655936</v>
+      </c>
+      <c r="F80">
+        <v>-0.04410181676829704</v>
+      </c>
+      <c r="G80">
+        <v>-0.02270359895324655</v>
+      </c>
+      <c r="H80">
+        <v>-0.04013166493105303</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1508760021940908</v>
+        <v>0.1402629859164625</v>
       </c>
       <c r="C81">
-        <v>-0.08493909528168941</v>
+        <v>-0.1084529642421189</v>
       </c>
       <c r="D81">
-        <v>-0.03716923468374324</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.07827504599744171</v>
+      </c>
+      <c r="E81">
+        <v>-0.1039050670156868</v>
+      </c>
+      <c r="F81">
+        <v>-0.009359402632188022</v>
+      </c>
+      <c r="G81">
+        <v>0.03098350265418057</v>
+      </c>
+      <c r="H81">
+        <v>0.07366841775949044</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2589262209682096</v>
+        <v>0.2512078241995246</v>
       </c>
       <c r="C82">
-        <v>-0.1813259293039717</v>
+        <v>-0.2087966858272186</v>
       </c>
       <c r="D82">
-        <v>-0.2188351102371466</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.2298876641256826</v>
+      </c>
+      <c r="E82">
+        <v>0.04763320563752044</v>
+      </c>
+      <c r="F82">
+        <v>0.01463367889065142</v>
+      </c>
+      <c r="G82">
+        <v>0.4081037274380091</v>
+      </c>
+      <c r="H82">
+        <v>-0.32809991205477</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.04331020574746191</v>
+        <v>0.02783508725212668</v>
       </c>
       <c r="C83">
-        <v>-0.03755704437013635</v>
+        <v>-0.04868897250966641</v>
       </c>
       <c r="D83">
-        <v>0.07162543600125201</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.05196006685768492</v>
+      </c>
+      <c r="E83">
+        <v>-0.003716232171923344</v>
+      </c>
+      <c r="F83">
+        <v>-0.02587889591790299</v>
+      </c>
+      <c r="G83">
+        <v>0.001736588629931995</v>
+      </c>
+      <c r="H83">
+        <v>-0.02606236093358038</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.000125631052510852</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.00227816379215762</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.004458408822041376</v>
+      </c>
+      <c r="E84">
+        <v>-0.009787194766608727</v>
+      </c>
+      <c r="F84">
+        <v>0.004235765136550397</v>
+      </c>
+      <c r="G84">
+        <v>-0.003851178442234853</v>
+      </c>
+      <c r="H84">
+        <v>-0.008079066573320071</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1940200029755454</v>
+        <v>0.1782861670306915</v>
       </c>
       <c r="C85">
-        <v>-0.08168990474138886</v>
+        <v>-0.1123954244944374</v>
       </c>
       <c r="D85">
-        <v>-0.07320387961941063</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.09285425847867376</v>
+      </c>
+      <c r="E85">
+        <v>-0.03273860441487265</v>
+      </c>
+      <c r="F85">
+        <v>0.01807105676581196</v>
+      </c>
+      <c r="G85">
+        <v>0.06496697420110212</v>
+      </c>
+      <c r="H85">
+        <v>0.1473103037832977</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.0141721344004562</v>
+        <v>0.01874850053221358</v>
       </c>
       <c r="C86">
-        <v>-0.01655608947668984</v>
+        <v>-0.01327741449451019</v>
       </c>
       <c r="D86">
-        <v>0.1372898298873025</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.1227241739063701</v>
+      </c>
+      <c r="E86">
+        <v>-0.02384757808113294</v>
+      </c>
+      <c r="F86">
+        <v>-0.01419398109080625</v>
+      </c>
+      <c r="G86">
+        <v>0.0418565414760325</v>
+      </c>
+      <c r="H86">
+        <v>-0.05241549915482763</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.03429285337728424</v>
+        <v>0.03448706891491322</v>
       </c>
       <c r="C87">
-        <v>-0.0113715194580903</v>
+        <v>-0.02627600272265601</v>
       </c>
       <c r="D87">
-        <v>0.109433215988797</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.1244731341067978</v>
+      </c>
+      <c r="E87">
+        <v>-0.09524578322460983</v>
+      </c>
+      <c r="F87">
+        <v>-0.03328894328847721</v>
+      </c>
+      <c r="G87">
+        <v>0.005063076350822806</v>
+      </c>
+      <c r="H87">
+        <v>-0.02605929294048475</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.0996481800011073</v>
+        <v>0.08394071154965378</v>
       </c>
       <c r="C88">
-        <v>-0.07434764069725786</v>
+        <v>-0.06945637280214001</v>
       </c>
       <c r="D88">
-        <v>0.06116008293984757</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03599852348113815</v>
+      </c>
+      <c r="E88">
+        <v>-0.05487334360856137</v>
+      </c>
+      <c r="F88">
+        <v>-0.006836703761456343</v>
+      </c>
+      <c r="G88">
+        <v>0.03377598308629321</v>
+      </c>
+      <c r="H88">
+        <v>-0.04061062111785608</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.1995545975058085</v>
+        <v>0.2462017630792561</v>
       </c>
       <c r="C89">
-        <v>0.3691013346145006</v>
+        <v>0.3643540307370657</v>
       </c>
       <c r="D89">
-        <v>-0.02715186635202344</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.003273284890277177</v>
+      </c>
+      <c r="E89">
+        <v>-0.08140965933650443</v>
+      </c>
+      <c r="F89">
+        <v>-0.05961077771230936</v>
+      </c>
+      <c r="G89">
+        <v>0.04037355674647125</v>
+      </c>
+      <c r="H89">
+        <v>-0.03295996135893162</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.1894538977382483</v>
+        <v>0.2193643805882027</v>
       </c>
       <c r="C90">
-        <v>0.30444772819738</v>
+        <v>0.281306565530473</v>
       </c>
       <c r="D90">
-        <v>-0.01830608362394049</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.01372577656706581</v>
+      </c>
+      <c r="E90">
+        <v>-0.05729017228130394</v>
+      </c>
+      <c r="F90">
+        <v>-0.002589274990252617</v>
+      </c>
+      <c r="G90">
+        <v>-0.01037134713305322</v>
+      </c>
+      <c r="H90">
+        <v>-0.05778094666718368</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1942275520940014</v>
+        <v>0.1818822812654089</v>
       </c>
       <c r="C91">
-        <v>-0.1491598611218221</v>
+        <v>-0.1615213694628592</v>
       </c>
       <c r="D91">
-        <v>-0.05048143619667569</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.08492603579490057</v>
+      </c>
+      <c r="E91">
+        <v>-0.0860834230034529</v>
+      </c>
+      <c r="F91">
+        <v>0.006421707824294724</v>
+      </c>
+      <c r="G91">
+        <v>0.03046977334793503</v>
+      </c>
+      <c r="H91">
+        <v>0.1552071979651493</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1747053605922925</v>
+        <v>0.2010301021720395</v>
       </c>
       <c r="C92">
-        <v>0.2742358313567217</v>
+        <v>0.2813803597407799</v>
       </c>
       <c r="D92">
-        <v>0.03498723105501134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.01390332089589235</v>
+      </c>
+      <c r="E92">
+        <v>-0.07777896025767565</v>
+      </c>
+      <c r="F92">
+        <v>-0.04743018233236901</v>
+      </c>
+      <c r="G92">
+        <v>0.02696325580207866</v>
+      </c>
+      <c r="H92">
+        <v>-0.03533289175214537</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.2112430872501523</v>
+        <v>0.2400222890192178</v>
       </c>
       <c r="C93">
-        <v>0.3276991772451986</v>
+        <v>0.2977638886729943</v>
       </c>
       <c r="D93">
-        <v>0.00302624515047414</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.005441136539043759</v>
+      </c>
+      <c r="E93">
+        <v>-0.04068021088105613</v>
+      </c>
+      <c r="F93">
+        <v>0.02625568267492041</v>
+      </c>
+      <c r="G93">
+        <v>0.02784024850452143</v>
+      </c>
+      <c r="H93">
+        <v>-0.01657980024079948</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.40080764079445</v>
+        <v>0.3554543322388728</v>
       </c>
       <c r="C94">
-        <v>-0.2330386514794832</v>
+        <v>-0.2329489615500969</v>
       </c>
       <c r="D94">
-        <v>-0.4707765023221459</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.4407778662968696</v>
+      </c>
+      <c r="E94">
+        <v>-0.1092430899839128</v>
+      </c>
+      <c r="F94">
+        <v>-0.02842610905272859</v>
+      </c>
+      <c r="G94">
+        <v>-0.5762416256510813</v>
+      </c>
+      <c r="H94">
+        <v>-0.1644028410766157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.09678797651583256</v>
+        <v>0.07145075415964289</v>
       </c>
       <c r="C95">
-        <v>0.01210778331295178</v>
+        <v>-0.03841386384677374</v>
       </c>
       <c r="D95">
-        <v>0.06479448600047261</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.09733192912888307</v>
+      </c>
+      <c r="E95">
+        <v>0.187406937545235</v>
+      </c>
+      <c r="F95">
+        <v>-0.896698831432904</v>
+      </c>
+      <c r="G95">
+        <v>0.01502149011703331</v>
+      </c>
+      <c r="H95">
+        <v>0.07127590511654994</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1724160299848303</v>
+        <v>0.1688052492935361</v>
       </c>
       <c r="C98">
-        <v>-0.0199764434394373</v>
+        <v>-0.04603626819137679</v>
       </c>
       <c r="D98">
-        <v>0.1308044492027542</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.1483058994541652</v>
+      </c>
+      <c r="E98">
+        <v>0.2692331301284046</v>
+      </c>
+      <c r="F98">
+        <v>0.1129201655012021</v>
+      </c>
+      <c r="G98">
+        <v>0.009617836300426497</v>
+      </c>
+      <c r="H98">
+        <v>0.01130772191067409</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.007417181464624782</v>
+        <v>0.007846323248126513</v>
       </c>
       <c r="C101">
-        <v>-0.02172009029373471</v>
+        <v>-0.02351285185169512</v>
       </c>
       <c r="D101">
-        <v>0.06314450682919372</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.07396922400105362</v>
+      </c>
+      <c r="E101">
+        <v>-0.05822389718373489</v>
+      </c>
+      <c r="F101">
+        <v>-6.586966558297882e-05</v>
+      </c>
+      <c r="G101">
+        <v>0.04511067856455198</v>
+      </c>
+      <c r="H101">
+        <v>-0.07722521678737661</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1276822267465687</v>
+        <v>0.1189667546323098</v>
       </c>
       <c r="C102">
-        <v>-0.08631006091806553</v>
+        <v>-0.110315553249922</v>
       </c>
       <c r="D102">
-        <v>-0.03300376622016907</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>-0.04819032977395875</v>
+      </c>
+      <c r="E102">
+        <v>-0.01273777752422006</v>
+      </c>
+      <c r="F102">
+        <v>-0.02528280185419389</v>
+      </c>
+      <c r="G102">
+        <v>0.04464121682885428</v>
+      </c>
+      <c r="H102">
+        <v>0.02324918264216816</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
